--- a/ProyectoRata/Documentacion/REPARTO DE TAREAS.xlsx
+++ b/ProyectoRata/Documentacion/REPARTO DE TAREAS.xlsx
@@ -196,23 +196,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,30 +543,30 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -574,10 +574,10 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -591,10 +591,10 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -608,16 +608,16 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -625,16 +625,16 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -642,16 +642,16 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -672,21 +672,21 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="57.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -743,15 +743,15 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">

--- a/ProyectoRata/Documentacion/REPARTO DE TAREAS.xlsx
+++ b/ProyectoRata/Documentacion/REPARTO DE TAREAS.xlsx
@@ -134,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,13 +149,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,28 +203,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -543,30 +564,30 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -574,16 +595,16 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -591,16 +612,16 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -608,16 +629,16 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -625,16 +646,16 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -642,51 +663,61 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="57.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -743,95 +774,99 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="E16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+      <c r="E17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+      <c r="E18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
+      <c r="E19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
